--- a/biology/Botanique/Schefflera/Schefflera.xlsx
+++ b/biology/Botanique/Schefflera/Schefflera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Schefflera constitue un groupe d’arbustes et d'arbres tropicaux vivaces au luxuriant feuillage persistant de la famille des Araliaceae, originaires d’Asie, d'Océanie et d’Amérique centrale, où ils peuvent atteindre 30 m de haut. Au Queensland en Australie, il forme un petit arbre pouvant mesurer jusqu’à 12 m. En zone humide, ils poussent aussi en épiphytes sur des rochers ou des arbres. 
 Il est dédié à Johann Peter Ernst von Scheffler (de) (1739-1809), médecin et botaniste allemand.
 Le genre comprend environ 150 espèces et 900 variétés, originaires des zones tropicales et subtropicales humides, mais on cultive essentiellement les espèces S. arboricola et S. actinophylla aux feuilles vertes ou panachés de jaune ou d’ivoire, selon les sélections, comme plantes tropicales d’intérieur. Elles peuvent atteindre 1,50 m (S. arboricola) et 3 m (S. actinophylla) dans les appartements. Ces plantes sont appréciées pour leur capacité à purifier l’air des appartements.
 Ils portent les surnoms de parasol, d’arbre-parapluie, d’arbre-ombrelle, ou d’arbre du bureau. Son nom local en Nouvelle-Calédonie, est Petit Boux.
-Les 37 espèces américaines de Schefflera J.R. et G. Forst. sont retournées dans le genre Didymopanax Decne. &amp; Planch.[1].
+Les 37 espèces américaines de Schefflera J.R. et G. Forst. sont retournées dans le genre Didymopanax Decne. &amp; Planch..
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses feuilles portées par de longs pétioles, de 25 à 30 cm, sont composées de 3 puis de 5 folioles de couleur vert vif brillant, elles-mêmes pétiolées.
 Il produit des fleurs rouges mais rarement en appartement.
@@ -547,7 +561,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Schefflera abyssinica
 Schefflera actinophylla (Endl.) H.A.T.Harms - Arbre ombelle, originaire d’Australie, caractérisé par des feuilles grandes et souples.
@@ -563,7 +579,7 @@
 Schefflera hierniana Harms
 Schefflera mannii (Hook.f.) Harms
 Schefflera myriantha
-ancien Schefflera morototonii (Aubl.) Maguire, Steyermark &amp; Frodin devenu Didymopanax morototoni (Aubl.) Decne. &amp; Planch.[1] - Morototó, originaire d’Amérique centrale, utilisé comme bois commercial.
+ancien Schefflera morototonii (Aubl.) Maguire, Steyermark &amp; Frodin devenu Didymopanax morototoni (Aubl.) Decne. &amp; Planch. - Morototó, originaire d’Amérique centrale, utilisé comme bois commercial.
 Schefflera pueckleri - Schefflera originaire du sud-ouest de la Chine, Laos, Nord de la Thaïlande, Nord du Viêt Nam.
 Schefflera toto Baill.
 Schefflera veitchii (hort. ex Carrière) Frodin &amp; Lowry
@@ -595,7 +611,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Son latex est irritant pour la peau.
 Le Schefflera est toxique pour les tortues.
